--- a/data/Budget_Data/2004_Budget.xlsx
+++ b/data/Budget_Data/2004_Budget.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elope\Documents\UCD\Homeworks\Project 1\project-national-park-performance\data\Budget_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elope\Desktop\project-national-park-performance\data\Budget_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEE7438-DB1A-4E29-8E61-76EF02FD2E2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CDBF1E-9728-420C-B657-CA187D3F7263}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2250" windowWidth="18980" windowHeight="7360" xr2:uid="{D0BAB2E9-8DF6-4EDC-B6A0-73647EE9472C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D0BAB2E9-8DF6-4EDC-B6A0-73647EE9472C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
